--- a/biology/Zoologie/Adscita_statices/Adscita_statices.xlsx
+++ b/biology/Zoologie/Adscita_statices/Adscita_statices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Procris de l'oseille (Adscita statices), aussi appelé la Turquoise ou Turquoise de la sarcille, est une espèce de lépidoptères (papillons) de la famille des Zygaenidae et de la sous-famille des Procridinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’imago mesure de 24 à 31 mm d'envergure pour le mâle, et de 19 à 25 mm d'envergure pour la femelle.
 Le dessus des ailes antérieures, le thorax et la tête sont bleu turquoise brillant. Le dessus des ailes postérieures, rarement visible, est gris.
@@ -544,14 +558,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Adscita statices a été décrite en 1758 par le naturaliste suédois Carl von Linné, sous le nom initial de Sphinx statices.
-Synonymes
-Sphinx statices Linnaeus, 1758 – protonyme
-Procris statices (Linnaeus, 1758)
-Adscita turcosa Retzius, 1783
-Procris heuseri Reichl, 1964</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adscita statices a été décrite en 1758 par le naturaliste suédois Carl von Linné, sous le nom initial de Sphinx statices.
+</t>
         </is>
       </c>
     </row>
@@ -576,14 +588,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France métropolitaine, Adscita statices se retrouve presque partout, mais est absent de Corse[1]. 
-Adscita statices vole surtout dans les prairies, où se trouve sa plante de prédilection, Rumex acetosa.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sphinx statices Linnaeus, 1758 – protonyme
+Procris statices (Linnaeus, 1758)
+Adscita turcosa Retzius, 1783
+Procris heuseri Reichl, 1964</t>
         </is>
       </c>
     </row>
@@ -608,13 +627,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France métropolitaine, Adscita statices se retrouve presque partout, mais est absent de Corse. 
+Adscita statices vole surtout dans les prairies, où se trouve sa plante de prédilection, Rumex acetosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adscita_statices</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adscita_statices</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago vole de mai à août, parfois encore en septembre. 
-La chenille se nourrit de plantes du genre Rumex, dont Rumex acetosella ou Rumex acetosa[1].
+La chenille se nourrit de plantes du genre Rumex, dont Rumex acetosella ou Rumex acetosa.
 </t>
         </is>
       </c>
